--- a/data/case1/9/Qlm2_1.xlsx
+++ b/data/case1/9/Qlm2_1.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.089679609823498652</v>
+        <v>-0.091562213532490944</v>
       </c>
       <c r="B1" s="0">
-        <v>0.0892804454155538</v>
+        <v>0.091028556423268014</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.082853123394585282</v>
+        <v>-0.084611713586231652</v>
       </c>
       <c r="B2" s="0">
-        <v>0.081776902912051419</v>
+        <v>0.083058099347446124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.032063010512311862</v>
+        <v>-0.037443331664029245</v>
       </c>
       <c r="B3" s="0">
-        <v>0.031808589933088882</v>
+        <v>0.037017796224608546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.023808589997697638</v>
+        <v>-0.029017796274796837</v>
       </c>
       <c r="B4" s="0">
-        <v>0.023590001780116054</v>
+        <v>0.028634991253118969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.020590001809146052</v>
+        <v>-0.025634991276170638</v>
       </c>
       <c r="B5" s="0">
-        <v>0.019865471116753852</v>
+        <v>0.024338301957061326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.020098840556840969</v>
+        <v>0.013789195129410459</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.020120280678215252</v>
+        <v>-0.014157178039539531</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0027773873663274884</v>
+        <v>0.024157177976674049</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.002889526856788116</v>
+        <v>-0.024250456186025282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.031927644942061573</v>
+        <v>0.034250456124968576</v>
       </c>
       <c r="B8" s="0">
-        <v>0.031646510097739</v>
+        <v>-0.034448574663360709</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029646510122681047</v>
+        <v>0.036448574651156473</v>
       </c>
       <c r="B9" s="0">
-        <v>0.029410331742568463</v>
+        <v>-0.036623952737774967</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.02741033177075991</v>
+        <v>-0.022894974363216747</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027394852021950911</v>
+        <v>0.022891325900738835</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024394852057697314</v>
+        <v>-0.019891325913725666</v>
       </c>
       <c r="B11" s="0">
-        <v>0.02436853504720915</v>
+        <v>0.019885276398429852</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020868535087561479</v>
+        <v>-0.016385276414815575</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020672116514636851</v>
+        <v>0.016348072238788536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017172116558158201</v>
+        <v>-0.012848072257239274</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017082814100047194</v>
+        <v>0.012837086091498584</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090828141770744608</v>
+        <v>-0.0048370861355362393</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090537973274731343</v>
+        <v>0.0048363255534500382</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080537973539724916</v>
+        <v>-0.008052971055660052</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080350745420272318</v>
+        <v>0.0080344731301833505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060350745763537716</v>
+        <v>-0.0060344731412782515</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060034191415283544</v>
+        <v>0.0060034335598340149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034191764464211</v>
+        <v>-0.0040034335715102287</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999502757788</v>
+        <v>0.0039999999769202432</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.00042732206538076412</v>
+        <v>-0.00041684287132071063</v>
       </c>
       <c r="B18" s="0">
-        <v>0.00032927129580784253</v>
+        <v>0.0003114689895866718</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0036707286742920786</v>
+        <v>0.0036885309873251337</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0044053601498599271</v>
+        <v>-0.0044736115525885189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0084053601204239214</v>
+        <v>0.0084736115298955639</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.0086170001597913881</v>
+        <v>-0.0087015745101517439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.004005726253761388</v>
+        <v>-0.0040057101807455808</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999706372691</v>
+        <v>0.0039999999773687733</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045713892434179115</v>
+        <v>-0.041614767710179024</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045500193932451083</v>
+        <v>0.041362477994618452</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040500193976512833</v>
+        <v>-0.04050270317412874</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099208745089321</v>
+        <v>0.040099743070967975</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099208902567334</v>
+        <v>-0.020099743192176334</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999840382365</v>
+        <v>0.019999999877073904</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.037964311696633501</v>
+        <v>-0.036127497105326256</v>
       </c>
       <c r="B25" s="0">
-        <v>0.037880702658588561</v>
+        <v>0.036091664818602709</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.035380702686087062</v>
+        <v>-0.033591664840830759</v>
       </c>
       <c r="B26" s="0">
-        <v>0.035275379693409548</v>
+        <v>0.033548996006988574</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.032775379722063125</v>
+        <v>-0.03104899602999911</v>
       </c>
       <c r="B27" s="0">
-        <v>0.032166370960811985</v>
+        <v>0.030816616075918901</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.088997391137140447</v>
+        <v>-0.028816616099154757</v>
       </c>
       <c r="B28" s="0">
-        <v>0.08835620079989237</v>
+        <v>0.028676147931462559</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081356200874751039</v>
+        <v>-0.021676147984823757</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081170536497206847</v>
+        <v>0.02164806514892792</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021170536962971553</v>
+        <v>0.038351934500494345</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022720945570228</v>
+        <v>-0.038461712356157474</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022721028322138</v>
+        <v>0.045461712305778335</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001093564527167</v>
+        <v>-0.04551151334352177</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040010936695935584</v>
+        <v>0.055511513277785696</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999384896512</v>
+        <v>-0.055639658857961294</v>
       </c>
     </row>
   </sheetData>
